--- a/data_process/xlsx/jongno_A2_processed.xlsx
+++ b/data_process/xlsx/jongno_A2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>127.002501</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5679101</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9999438</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5695463</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.9901387</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5732826</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9897856</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5738865</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>126.9915576</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5706843</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9789694</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5710184</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9837135</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5753546</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.9886173</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5665774</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.991494</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5654794</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0014533</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5699262</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.9909473</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5739219</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.9902865</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5654905</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>126.9835556</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5744663</v>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1617,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>126.9894413</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5736216</v>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1683,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>126.9823089</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.568377</v>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1749,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9906838</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5731479</v>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1815,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>126.9810422</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.566491</v>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1881,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>127.0112136</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5782338</v>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1947,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9706551</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5671717</v>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +2013,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>127.0016197</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5729252</v>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +2079,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>126.9901387</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5732826</v>
       </c>
     </row>
     <row r="26">
@@ -1991,8 +2145,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>126.9862903</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.5780996</v>
       </c>
     </row>
     <row r="27">
@@ -2051,8 +2211,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>126.9860399</v>
+      </c>
+      <c r="N27" t="n">
+        <v>37.5774613</v>
       </c>
     </row>
     <row r="28">
@@ -2111,8 +2277,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>126.9837306</v>
+      </c>
+      <c r="N28" t="n">
+        <v>37.5715471</v>
       </c>
     </row>
     <row r="29">
@@ -2171,8 +2343,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>126.9894603</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37.573386</v>
       </c>
     </row>
     <row r="30">
@@ -2231,8 +2409,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>126.9896469</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37.573769</v>
       </c>
     </row>
     <row r="31">
@@ -2291,8 +2475,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>126.9803692</v>
+      </c>
+      <c r="N31" t="n">
+        <v>37.5670959</v>
       </c>
     </row>
     <row r="32">
@@ -2351,8 +2541,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>126.9764641</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37.5647953</v>
       </c>
     </row>
     <row r="33">
@@ -2411,8 +2607,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>126.9897156</v>
+      </c>
+      <c r="N33" t="n">
+        <v>37.5731557</v>
       </c>
     </row>
     <row r="34">
@@ -2471,8 +2673,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>126.9788681</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.5694936</v>
       </c>
     </row>
     <row r="35">
@@ -2531,8 +2739,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>127.0016822</v>
+      </c>
+      <c r="N35" t="n">
+        <v>37.5819294</v>
       </c>
     </row>
     <row r="36">
@@ -2591,8 +2805,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N36" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="37">
@@ -2651,8 +2871,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>126.983659</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.5714967</v>
       </c>
     </row>
     <row r="38">
@@ -2711,8 +2937,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>126.9903563</v>
+      </c>
+      <c r="N38" t="n">
+        <v>37.5738337</v>
       </c>
     </row>
     <row r="39">
@@ -2771,8 +3003,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>126.9883592</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37.5778205</v>
       </c>
     </row>
     <row r="40">
@@ -2831,8 +3069,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>126.983857</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.5754765</v>
       </c>
     </row>
     <row r="41">
@@ -2891,8 +3135,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>126.9904822</v>
+      </c>
+      <c r="N41" t="n">
+        <v>37.5731398</v>
       </c>
     </row>
     <row r="42">
@@ -2951,8 +3201,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>126.9723801</v>
+      </c>
+      <c r="N42" t="n">
+        <v>37.5660651</v>
       </c>
     </row>
     <row r="43">
@@ -3011,8 +3267,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>126.9895623</v>
+      </c>
+      <c r="N43" t="n">
+        <v>37.5664425</v>
       </c>
     </row>
     <row r="44">
@@ -3071,8 +3333,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>126.9901362</v>
+      </c>
+      <c r="N44" t="n">
+        <v>37.57337</v>
       </c>
     </row>
     <row r="45">
@@ -3131,8 +3399,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>127.0017132</v>
+      </c>
+      <c r="N45" t="n">
+        <v>37.5698742</v>
       </c>
     </row>
     <row r="46">
@@ -3191,8 +3465,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>127.0004199</v>
+      </c>
+      <c r="N46" t="n">
+        <v>37.5706135</v>
       </c>
     </row>
     <row r="47">
@@ -3251,8 +3531,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>126.9881745</v>
+      </c>
+      <c r="N47" t="n">
+        <v>37.577201</v>
       </c>
     </row>
     <row r="48">
@@ -3311,8 +3597,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>126.9782701</v>
+      </c>
+      <c r="N48" t="n">
+        <v>37.5684246</v>
       </c>
     </row>
     <row r="49">
@@ -3371,8 +3663,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>127.0011167</v>
+      </c>
+      <c r="N49" t="n">
+        <v>37.5818125</v>
       </c>
     </row>
     <row r="50">
@@ -3431,8 +3729,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>126.9901184</v>
+      </c>
+      <c r="N50" t="n">
+        <v>37.5734278</v>
       </c>
     </row>
     <row r="51">
@@ -3491,8 +3795,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>126.9891377</v>
+      </c>
+      <c r="N51" t="n">
+        <v>37.5791065</v>
       </c>
     </row>
     <row r="52">
@@ -3551,8 +3861,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>126.986378</v>
+      </c>
+      <c r="N52" t="n">
+        <v>37.5773978</v>
       </c>
     </row>
     <row r="53">
@@ -3611,8 +3927,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>126.9884451</v>
+      </c>
+      <c r="N53" t="n">
+        <v>37.5676514</v>
       </c>
     </row>
     <row r="54">
@@ -3671,8 +3993,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>126.9900956</v>
+      </c>
+      <c r="N54" t="n">
+        <v>37.5730967</v>
       </c>
     </row>
     <row r="55">
@@ -3731,8 +4059,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:07</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>126.9896893</v>
+      </c>
+      <c r="N55" t="n">
+        <v>37.5737109</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_A2_processed.xlsx
+++ b/data_process/xlsx/jongno_A2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,24 +491,34 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>카페도프</t>
+          <t>버터풀앤크리멀러스 쁘띠 광화문점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,16 +528,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>1206</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -536,17 +546,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>종로3길</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>376 1층</t>
+          <t>17 D타워 1층 103호</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,25 +566,35 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0507-1461-6302</t>
+          <t>02-2251-8177</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>127.002501</v>
+          <t>https://pcmap.place.naver.com/restaurant/1603610320/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142247615</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>37.5679101</v>
+        <v>126.9789694</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.5710184</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>세운나다방</t>
+          <t>익선주택</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,16 +604,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>다방</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>1206</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -602,17 +622,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>157 4층, 세운나다방</t>
+          <t>17-33 1층</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -622,19 +642,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02-2265-2681</t>
+          <t>0507-1309-9208</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>126.9954936</v>
+          <t>https://pcmap.place.naver.com/restaurant/1473879047/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142249461</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>37.5670649</v>
+        <v>126.9894413</v>
+      </c>
+      <c r="O3" t="n">
+        <v>37.5736216</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -655,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1546</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -693,20 +723,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+          <t>https://pcmap.place.naver.com/restaurant/1723070136/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142250430</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>126.9999438</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37.5695463</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>서울커피 익선점</t>
+          <t>자연도소금빵&amp;자연도가</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -716,16 +756,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -744,7 +784,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33-3 1층 서울커피</t>
+          <t>21-17 1층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -754,25 +794,35 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0507-1404-4890</t>
+          <t>02-743-2245</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>126.9901387</v>
+          <t>https://pcmap.place.naver.com/restaurant/1869147927/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142251449</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>37.5732826</v>
+        <v>126.9896893</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.5737109</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>청수당 베이커리</t>
+          <t>시애틀커피하우스</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -787,11 +837,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -805,12 +855,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>돈화문로11나길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31-9</t>
+          <t>125 1층</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -820,25 +870,35 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0507-1318-8215</t>
+          <t>0507-1321-9356</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>126.9897856</v>
+          <t>https://pcmap.place.naver.com/restaurant/1058863783/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142254207</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>37.5738865</v>
+        <v>126.9915576</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5706843</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>시애틀커피하우스</t>
+          <t>청수당 베이커리</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -871,12 +931,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>돈화문로11나길</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125 1층</t>
+          <t>31-9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -886,25 +946,35 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0507-1321-9356</t>
+          <t>0507-1318-8215</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>126.9915576</v>
+          <t>https://pcmap.place.naver.com/restaurant/1262377225/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142256840</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>37.5706843</v>
+        <v>126.9897856</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.5738865</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>포비 광화문</t>
+          <t>토오베</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -914,12 +984,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>차</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -937,12 +1007,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>종로3길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17 D타워 1층 21호</t>
+          <t>62-4 3층</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -952,25 +1022,35 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>02-2251-8125</t>
+          <t>0507-1489-7720</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>126.9789694</v>
+          <t>https://pcmap.place.naver.com/restaurant/1958472798/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142258302</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N8" t="n">
-        <v>37.5710184</v>
+        <v>126.9837135</v>
+      </c>
+      <c r="O8" t="n">
+        <v>37.5753546</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>토오베</t>
+          <t>포비 광화문</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -980,7 +1060,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>차</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1003,12 +1083,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>종로3길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>62-4 3층</t>
+          <t>17 D타워 1층 21호</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1018,25 +1098,35 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1489-7720</t>
+          <t>02-2251-8125</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>126.9837135</v>
+          <t>https://pcmap.place.naver.com/restaurant/37197875/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142259270</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>37.5753546</v>
+        <v>126.9789694</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.5710184</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>커피한약방</t>
+          <t>서울커피 익선점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1046,12 +1136,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1064,17 +1154,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>삼일대로12길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16-6</t>
+          <t>33-3 1층 서울커피</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1084,25 +1174,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>070-4148-4242</t>
+          <t>0507-1404-4890</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>126.9886173</v>
+          <t>https://pcmap.place.naver.com/restaurant/506996136/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142260717</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>37.5665774</v>
+        <v>126.9901387</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.5732826</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>을지로 베로나</t>
+          <t>크라상점 광장시장점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1112,12 +1212,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1130,17 +1230,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>충무로5길</t>
+          <t>종로32길</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24 3층</t>
+          <t>25 1층</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,25 +1250,35 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0507-1348-0526</t>
+          <t>010-7552-0330</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>126.991494</v>
+          <t>https://pcmap.place.naver.com/restaurant/1156000318/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142262082</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.5654794</v>
+        <v>127.0014533</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.5699262</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>크라상점 광장시장점</t>
+          <t>커피한약방</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1178,16 +1288,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1196,17 +1306,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>종로32길</t>
+          <t>삼일대로12길</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25 1층</t>
+          <t>16-6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1216,25 +1326,35 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>010-7552-0330</t>
+          <t>070-4148-4242</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>127.0014533</v>
+          <t>https://pcmap.place.naver.com/restaurant/1614417324/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142263004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>37.5699262</v>
+        <v>126.9886173</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.5665774</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>티퍼런스서울</t>
+          <t>공간갑</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1249,11 +1369,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1262,17 +1382,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>돈화문로</t>
+          <t>수표로</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>61 티퍼런스서울</t>
+          <t>48-8 1, 2층</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1282,25 +1402,35 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>02-745-1501</t>
+          <t>0507-1362-4569</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>126.9909473</v>
+          <t>https://pcmap.place.naver.com/restaurant/1053282197/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142264582</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>37.5739219</v>
+        <v>126.9902865</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.5654905</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서울바나나커피 을지로4가점</t>
+          <t>소하염전</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1310,16 +1440,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1328,17 +1458,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>157 3층 다362호, 라362호</t>
+          <t>21-5 (익선동)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1348,25 +1478,35 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>02-2276-0327</t>
+          <t>0507-1353-8215</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>126.9954936</v>
+          <t>https://pcmap.place.naver.com/restaurant/1910405811/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142265793</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>37.5670649</v>
+        <v>126.9897156</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37.5731557</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>공간갑</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1376,12 +1516,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1399,12 +1539,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>수표로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>48-8 1, 2층</t>
+          <t>157</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1414,25 +1554,35 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0507-1362-4569</t>
+          <t>0507-1305-5880</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>126.9902865</v>
+          <t>https://pcmap.place.naver.com/restaurant/1386833963/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142266798</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N15" t="n">
-        <v>37.5654905</v>
+        <v>126.9954936</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37.5670649</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>티퍼런스서울</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1442,12 +1592,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1460,17 +1610,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>돈화문로</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>61 티퍼런스서울</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1480,25 +1630,35 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0507-1305-5880</t>
+          <t>02-745-1501</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>126.9954936</v>
+          <t>https://pcmap.place.naver.com/restaurant/1673228007/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142268323</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>37.5670649</v>
+        <v>126.9909473</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5739219</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>뮤직컴플렉스서울 안녕인사동점</t>
+          <t>커피루소 정동</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1513,11 +1673,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1526,17 +1686,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>정동길</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>49 안녕인사동 5층 뮤직컴플렉스서울</t>
+          <t>17 1층</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1546,25 +1706,35 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0507-1308-2939</t>
+          <t>02-772-9935</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>126.9835556</v>
+          <t>https://pcmap.place.naver.com/restaurant/38238621/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142269278</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>37.5744663</v>
+        <v>126.9706551</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.5671717</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>익선주택</t>
+          <t>식물</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1574,12 +1744,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1597,12 +1767,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>돈화문로11다길</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17-33 1층</t>
+          <t>46-1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1612,25 +1782,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0507-1309-9208</t>
+          <t>02-742-7582</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>126.9894413</v>
+          <t>https://pcmap.place.naver.com/restaurant/1067925517/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142270382</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N18" t="n">
-        <v>37.5736216</v>
+        <v>126.9896469</v>
+      </c>
+      <c r="O18" t="n">
+        <v>37.573769</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>아방베이커리 을지로 DGB점</t>
+          <t>적당</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1640,12 +1820,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1663,12 +1843,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>125 1층</t>
+          <t>29 1층 후문</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1678,25 +1858,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0507-1417-9923</t>
+          <t>0507-1312-8928</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>126.9823089</v>
+          <t>https://pcmap.place.naver.com/restaurant/1250997417/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142271384</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>37.568377</v>
+        <v>126.9810422</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.566491</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>카페하이웨스트 익선점</t>
+          <t>도토리가든</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1711,7 +1901,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1729,12 +1919,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>돈화문로11다길</t>
+          <t>계동길</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19-8 1층</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1744,25 +1934,35 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1476-1176</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>126.9906838</v>
+          <t>https://pcmap.place.naver.com/restaurant/1198045151/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142272398</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N20" t="n">
-        <v>37.5731479</v>
+        <v>126.9862903</v>
+      </c>
+      <c r="O20" t="n">
+        <v>37.5780996</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>적당</t>
+          <t>결</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1777,7 +1977,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1790,17 +1990,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>공평동</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29 1층 후문</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1810,25 +2010,35 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0507-1312-8928</t>
+          <t>0507-1437-5840</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>126.9810422</v>
+          <t>https://pcmap.place.naver.com/restaurant/1084312804/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142273453</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>37.566491</v>
+        <v>126.9837306</v>
+      </c>
+      <c r="O21" t="n">
+        <v>37.5715471</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>테르트르</t>
+          <t>노티드 안국</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1843,7 +2053,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1861,12 +2071,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>낙산5길</t>
+          <t>북촌로</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>6-3 1층</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1876,25 +2086,35 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0507-1388-5689</t>
+          <t>070-7755-9377</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>127.0112136</v>
+          <t>https://pcmap.place.naver.com/restaurant/1229793109/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142275041</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>37.5782338</v>
+        <v>126.9860399</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37.5774613</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>커피루소 정동</t>
+          <t>익선잡방</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1904,12 +2124,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>브런치</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1922,17 +2142,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>정동길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17 1층</t>
+          <t>17-21 익선잡방</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1942,25 +2162,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02-772-9935</t>
+          <t>0507-1313-3418</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>126.9706551</v>
+          <t>https://pcmap.place.naver.com/restaurant/1767890367/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142276109</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>37.5671717</v>
+        <v>126.9894603</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.573386</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>헬라스커피</t>
+          <t>서울커피 익선점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1970,12 +2200,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1993,12 +2223,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19 1층</t>
+          <t>33-3 1층 서울커피</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2008,25 +2238,35 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0507-1351-7092</t>
+          <t>0507-1404-4890</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>127.0016197</v>
+          <t>https://pcmap.place.naver.com/restaurant/506996136/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142277125</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N24" t="n">
-        <v>37.5729252</v>
+        <v>126.9901387</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.5732826</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>서울커피 익선점</t>
+          <t>꼬르꼬바두</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2041,11 +2281,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2059,12 +2299,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>수표로</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>33-3 1층 서울커피</t>
+          <t>86-1 1층 카페 꼬르꼬바두</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2074,25 +2314,35 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0507-1404-4890</t>
+          <t>02-2272-0111</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>126.9901387</v>
+          <t>https://pcmap.place.naver.com/restaurant/1776930583/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142278134</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N25" t="n">
-        <v>37.5732826</v>
+        <v>126.9899748</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.5688276</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>도토리가든</t>
+          <t>카페하이웨스트 익선점</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2107,7 +2357,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -2125,12 +2375,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>계동길</t>
+          <t>돈화문로11다길</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19-8 1층</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2140,25 +2390,35 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0507-1476-1176</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>126.9862903</v>
+          <t>https://pcmap.place.naver.com/restaurant/1827620160/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142279434</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N26" t="n">
-        <v>37.5780996</v>
+        <v>126.9906838</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.5731479</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>노티드 안국</t>
+          <t>테르트르</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2173,7 +2433,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2191,12 +2451,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>북촌로</t>
+          <t>낙산5길</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>6-3 1층</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2206,25 +2466,35 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>070-7755-9377</t>
+          <t>0507-1388-5689</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>126.9860399</v>
+          <t>https://pcmap.place.naver.com/restaurant/1248044853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142283044</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>37.5774613</v>
+        <v>127.0112136</v>
+      </c>
+      <c r="O27" t="n">
+        <v>37.5782338</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>결</t>
+          <t>블루보틀 광화문 카페</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2234,12 +2504,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>블루보틀</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -2257,12 +2527,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>공평동</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11 1층</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2272,25 +2542,35 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0507-1437-5840</t>
+          <t>1533-6906</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>126.9837306</v>
+          <t>https://pcmap.place.naver.com/restaurant/1219296929/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142284050</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N28" t="n">
-        <v>37.5715471</v>
+        <v>126.9788681</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.5694936</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>익선잡방</t>
+          <t>뮤직컴플렉스서울 안녕인사동점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2300,12 +2580,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>브런치</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -2323,12 +2603,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17-21 익선잡방</t>
+          <t>49 안녕인사동 5층 뮤직컴플렉스서울</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2338,25 +2618,35 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0507-1313-3418</t>
+          <t>0507-1308-2939</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>126.9894603</v>
+          <t>https://pcmap.place.naver.com/restaurant/1063364661/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142285036</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N29" t="n">
-        <v>37.573386</v>
+        <v>126.9835556</v>
+      </c>
+      <c r="O29" t="n">
+        <v>37.5744663</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>식물</t>
+          <t>서울바나나커피 을지로4가점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2371,11 +2661,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2384,17 +2674,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>돈화문로11다길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>46-1</t>
+          <t>157 3층 다362호, 라362호</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2404,25 +2694,35 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>02-742-7582</t>
+          <t>02-2276-0327</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>126.9896469</v>
+          <t>https://pcmap.place.naver.com/restaurant/1944371388/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142286424</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N30" t="n">
-        <v>37.573769</v>
+        <v>126.9954936</v>
+      </c>
+      <c r="O30" t="n">
+        <v>37.5670649</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>빠우 시청점</t>
+          <t>낙원역</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2432,7 +2732,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>도넛</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2441,7 +2741,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2450,17 +2750,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>남대문로9길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>40 센터플레이스 1층 102호</t>
+          <t>33-5</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2470,25 +2770,35 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0507-1476-8914</t>
+          <t>02-763-1112</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>126.9803692</v>
+          <t>https://pcmap.place.naver.com/restaurant/1758378925/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142289171</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N31" t="n">
-        <v>37.5670959</v>
+        <v>126.9901362</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.57337</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>덕수궁 리에제와플</t>
+          <t>콘크리트 팔레트</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2498,16 +2808,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>와플</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2516,17 +2826,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>덕수궁길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>125 콘크리트 팔레트</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2536,25 +2846,35 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0507-1339-5202</t>
+          <t>0507-1484-0724</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>126.9764641</v>
+          <t>https://pcmap.place.naver.com/restaurant/1128424119/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142290818</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N32" t="n">
-        <v>37.5647953</v>
+        <v>127.0015216</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37.5824748</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>소하염전</t>
+          <t>라운드앤드</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2564,12 +2884,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2582,17 +2902,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>정동길</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>21-5 (익선동)</t>
+          <t>35 두비빌딩</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2602,25 +2922,35 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0507-1353-8215</t>
+          <t>02-753-7003</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>126.9897156</v>
+          <t>https://pcmap.place.naver.com/restaurant/1250544364/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142291981</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N33" t="n">
-        <v>37.5731557</v>
+        <v>126.9723801</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.5660651</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>블루보틀 광화문 카페</t>
+          <t>사월의물고기</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2630,12 +2960,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>블루보틀</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2653,12 +2983,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>청계천로</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11 1층</t>
+          <t>62-5 (충훈빌딩) 2층</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2668,25 +2998,35 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1533-6906</t>
+          <t>02-733-8520</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>126.9788681</v>
+          <t>https://pcmap.place.naver.com/restaurant/259119148/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142293613</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N34" t="n">
-        <v>37.5694936</v>
+        <v>126.983857</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.5754765</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>학림</t>
+          <t>홍콩밀크컴퍼니</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2696,16 +3036,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2719,12 +3059,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>창신12길</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>119 2층 학림카페</t>
+          <t>53 1~2층</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2734,25 +3074,35 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02-742-2877</t>
+          <t>0507-1377-7402</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>127.0016822</v>
+          <t>https://pcmap.place.naver.com/restaurant/1108023131/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142294749</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N35" t="n">
-        <v>37.5819294</v>
+        <v>127.0114657</v>
+      </c>
+      <c r="O35" t="n">
+        <v>37.5778675</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>빠우</t>
+          <t>페이퍼마쉐</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2762,12 +3112,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>도넛</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2780,17 +3130,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>무교로</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>157 대림상가 3층 라열 361호</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2800,25 +3150,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0507-1374-9285</t>
+          <t>02-733-5854</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>126.9954936</v>
+          <t>https://pcmap.place.naver.com/restaurant/1550163571/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142296014</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N36" t="n">
-        <v>37.5670649</v>
+        <v>126.9794822</v>
+      </c>
+      <c r="O36" t="n">
+        <v>37.5695269</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>공차 종로센트로폴리스점</t>
+          <t>덕수궁 리에제와플</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2828,16 +3188,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>차</t>
+          <t>와플</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1423</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2846,17 +3206,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>우정국로</t>
+          <t>덕수궁길</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2866,25 +3226,35 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02-6370-5850</t>
+          <t>0507-1339-5202</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>126.983659</v>
+          <t>https://pcmap.place.naver.com/restaurant/21627288/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142297673</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N37" t="n">
-        <v>37.5714967</v>
+        <v>126.9764641</v>
+      </c>
+      <c r="O37" t="n">
+        <v>37.5647953</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>카페 라미스콘 익선점</t>
+          <t>광장시장 찹쌀꽈배기</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2894,12 +3264,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2917,12 +3287,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>돈화문로11나길</t>
+          <t>종로32길</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2 105호</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2932,25 +3302,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0507-1342-9562</t>
+          <t>010-8917-4547</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>126.9903563</v>
+          <t>https://pcmap.place.naver.com/restaurant/1993928504/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142298686</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N38" t="n">
-        <v>37.5738337</v>
+        <v>127.0004199</v>
+      </c>
+      <c r="O38" t="n">
+        <v>37.5706135</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>프릳츠 원서점</t>
+          <t>텅</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2965,7 +3345,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2988,7 +3368,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>83 아라리오 뮤지엄</t>
+          <t>82 701호</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2998,25 +3378,35 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>02-747-8101</t>
+          <t>02-766-1933</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>126.9883592</v>
+          <t>https://pcmap.place.naver.com/restaurant/1224384502/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142299891</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N39" t="n">
-        <v>37.5778205</v>
+        <v>126.9881745</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37.577201</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>사월의물고기</t>
+          <t>익선주택</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3026,7 +3416,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3049,12 +3439,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>62-5 (충훈빌딩) 2층</t>
+          <t>17-33 1층</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3064,25 +3454,35 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02-733-8520</t>
+          <t>0507-1309-9208</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>126.983857</v>
+          <t>https://pcmap.place.naver.com/restaurant/1473879047/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142301002</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N40" t="n">
-        <v>37.5754765</v>
+        <v>126.9894413</v>
+      </c>
+      <c r="O40" t="n">
+        <v>37.5736216</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>온</t>
+          <t>치즈인더스트리 [치즈공업사]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3097,11 +3497,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3115,12 +3515,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>돈화문로11다길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33-7</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3130,25 +3530,35 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02-741-5733</t>
+          <t>0507-1363-1722</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>126.9904822</v>
+          <t>https://pcmap.place.naver.com/restaurant/1025945192/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142302664</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N41" t="n">
-        <v>37.5731398</v>
+        <v>126.9901184</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37.5734278</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>라운드앤드</t>
+          <t>카페온화 익선점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3158,12 +3568,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -3176,17 +3586,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>정동길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>35 두비빌딩</t>
+          <t>21-10</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3196,25 +3606,35 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>02-753-7003</t>
+          <t>02-741-3289</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>126.9723801</v>
+          <t>https://pcmap.place.naver.com/restaurant/1360232609/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142303579</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N42" t="n">
-        <v>37.5660651</v>
+        <v>126.9898437</v>
+      </c>
+      <c r="O42" t="n">
+        <v>37.5732925</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>카페 카다로그</t>
+          <t>아방베이커리 을지로 DGB점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3224,12 +3644,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -3247,12 +3667,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>남대문로</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>105 이화빌딩 4층 401호</t>
+          <t>125 1층</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3262,25 +3682,35 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0507-1357-1868</t>
+          <t>0507-1417-9923</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>126.9895623</v>
+          <t>https://pcmap.place.naver.com/restaurant/1124940756/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142305152</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N43" t="n">
-        <v>37.5664425</v>
+        <v>126.9823089</v>
+      </c>
+      <c r="O43" t="n">
+        <v>37.568377</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>낙원역</t>
+          <t>빠우</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3290,16 +3720,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>도넛</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>705</v>
+        <v>1445</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3308,17 +3738,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>33-5</t>
+          <t>157 대림상가 3층 라열 361호</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3328,25 +3758,35 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02-763-1112</t>
+          <t>0507-1374-9285</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>126.9901362</v>
+          <t>https://pcmap.place.naver.com/restaurant/1881940422/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142306084</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N44" t="n">
-        <v>37.57337</v>
+        <v>126.9954936</v>
+      </c>
+      <c r="O44" t="n">
+        <v>37.5670649</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>미크플로 광장시장점</t>
+          <t>학림</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3356,16 +3796,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>933</v>
+        <v>1445</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3379,12 +3819,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>395 1층</t>
+          <t>119 2층 학림카페</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3394,25 +3834,35 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0507-1393-5338</t>
+          <t>02-742-2877</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>127.0017132</v>
+          <t>https://pcmap.place.naver.com/restaurant/11716359/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142307513</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N45" t="n">
-        <v>37.5698742</v>
+        <v>127.0016822</v>
+      </c>
+      <c r="O45" t="n">
+        <v>37.5819294</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>광장시장 찹쌀꽈배기</t>
+          <t>을지로 베로나</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3422,12 +3872,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -3440,17 +3890,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>종로32길</t>
+          <t>충무로5길</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2 105호</t>
+          <t>24 3층</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3460,25 +3910,35 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>010-8917-4547</t>
+          <t>0507-1348-0526</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>127.0004199</v>
+          <t>https://pcmap.place.naver.com/restaurant/1584325830/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142308862</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N46" t="n">
-        <v>37.5706135</v>
+        <v>126.991494</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37.5654794</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>텅</t>
+          <t>메리그린</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3488,16 +3948,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3511,12 +3971,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>율곡로</t>
+          <t>대학로11길</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>82 701호</t>
+          <t>49 2층</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3526,25 +3986,35 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>02-766-1933</t>
+          <t>0507-1337-1150</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>126.9881745</v>
+          <t>https://pcmap.place.naver.com/restaurant/1273177276/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142309966</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N47" t="n">
-        <v>37.577201</v>
+        <v>126.9991046</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.5826117</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>다만프레르 SFC점</t>
+          <t>번트서울</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3554,16 +4024,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>홍차전문점</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3572,17 +4042,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>136 파이넨스빌딩 지하1층</t>
+          <t>155 1층, 2층, 3층</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3592,25 +4062,35 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>02-6730-1323</t>
+          <t>0507-1385-0932</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>126.9782701</v>
+          <t>https://pcmap.place.naver.com/restaurant/1127007356/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142311089</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N48" t="n">
-        <v>37.5684246</v>
+        <v>126.9948618</v>
+      </c>
+      <c r="O48" t="n">
+        <v>37.5688681</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>카페첫만남</t>
+          <t>오키드고멧 안국</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3625,11 +4105,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3643,12 +4123,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>대학로9길</t>
+          <t>창덕궁길</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35 2층 오키드고멧 안국</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3658,25 +4138,35 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>02-766-2337</t>
+          <t>0507-1387-7335</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>127.0011167</v>
+          <t>https://pcmap.place.naver.com/restaurant/1414582523/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142313936</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N49" t="n">
-        <v>37.5818125</v>
+        <v>126.9891377</v>
+      </c>
+      <c r="O49" t="n">
+        <v>37.5791065</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>치즈인더스트리 [치즈공업사]</t>
+          <t>카페첫만남</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3695,7 +4185,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1168</v>
+        <v>1195</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3709,12 +4199,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>대학로9길</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>33-7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3724,25 +4214,35 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0507-1363-1722</t>
+          <t>02-766-2337</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>126.9901184</v>
+          <t>https://pcmap.place.naver.com/restaurant/13331683/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142316585</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N50" t="n">
-        <v>37.5734278</v>
+        <v>127.0011167</v>
+      </c>
+      <c r="O50" t="n">
+        <v>37.5818125</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>오키드고멧 안국</t>
+          <t>런던 베이글 뮤지엄 안국점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3752,63 +4252,73 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1195</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>북촌로4길</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>정보 없음</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>67</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>종로구</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>창덕궁길</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>35 2층 오키드고멧 안국</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>jongno</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0507-1387-7335</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>126.9891377</v>
+          <t>https://pcmap.place.naver.com/restaurant/1466975947/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142318024</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N51" t="n">
-        <v>37.5791065</v>
+        <v>126.9862172</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.5791729</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>어니언 안국</t>
+          <t>포비 을지로점</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3818,12 +4328,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -3836,17 +4346,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>계동길</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>5 카페 어니언</t>
+          <t>100 시그니처 타워 1층</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3856,25 +4366,35 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0507-1424-2123</t>
+          <t>02-6020-0880</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>126.986378</v>
+          <t>https://pcmap.place.naver.com/restaurant/1475084048/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142320938</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N52" t="n">
-        <v>37.5773978</v>
+        <v>126.9884451</v>
+      </c>
+      <c r="O52" t="n">
+        <v>37.5676514</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>포비 을지로점</t>
+          <t>카페 카다로그</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3884,12 +4404,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3907,12 +4427,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>청계천로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>100 시그니처 타워 1층</t>
+          <t>105 이화빌딩 4층 401호</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3922,25 +4442,35 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>02-6020-0880</t>
+          <t>0507-1357-1868</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>126.9884451</v>
+          <t>https://pcmap.place.naver.com/restaurant/1297580272/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142322311</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N53" t="n">
-        <v>37.5676514</v>
+        <v>126.9895623</v>
+      </c>
+      <c r="O53" t="n">
+        <v>37.5664425</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>플리퍼스 익선점</t>
+          <t>미크플로 광장시장점</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3955,11 +4485,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3973,12 +4503,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>동호로</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>31 1층</t>
+          <t>395 1층</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3988,25 +4518,35 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02-766-2526</t>
+          <t>0507-1393-5338</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>126.9900956</v>
+          <t>https://pcmap.place.naver.com/restaurant/1184122730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142323578</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N54" t="n">
-        <v>37.5730967</v>
+        <v>127.0017132</v>
+      </c>
+      <c r="O54" t="n">
+        <v>37.5698742</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>자연도소금빵&amp;자연도가</t>
+          <t>카페 레이어드 안국점</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4016,12 +4556,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -4039,12 +4579,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>북촌로2길</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>21-17 1층</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4054,19 +4594,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>02-743-2245</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:07</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>126.9896893</v>
+          <t>https://pcmap.place.naver.com/restaurant/731605639/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142324540</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:18:48</t>
+        </is>
       </c>
       <c r="N55" t="n">
-        <v>37.5737109</v>
+        <v>126.9859679</v>
+      </c>
+      <c r="O55" t="n">
+        <v>37.5777402</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
   </sheetData>
